--- a/individual_case_outputs/avey/444.xlsx
+++ b/individual_case_outputs/avey/444.xlsx
@@ -528,7 +528,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>hypoparathyroidism</t>
+          <t>hypocalcemia</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>hypoparathyroidism</t>
+          <t>hypothyroidism</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -662,7 +662,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>vitamin d deficiency</t>
+          <t>vitamin b12 deficiency anemia</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
